--- a/slyt_backend/data.xlsx
+++ b/slyt_backend/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660" activeTab="7"/>
+    <workbookView windowWidth="17820" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="3" r:id="rId1"/>
@@ -15,24 +15,25 @@
     <sheet name="研究油区总体介绍" sheetId="7" r:id="rId6"/>
     <sheet name="echart1" sheetId="8" r:id="rId7"/>
     <sheet name="echart2" sheetId="9" r:id="rId8"/>
+    <sheet name="name" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="779">
   <si>
     <t>时间</t>
   </si>
   <si>
-    <t>天然气消耗总价</t>
-  </si>
-  <si>
-    <t>破乳剂消耗总价</t>
-  </si>
-  <si>
-    <t>用电消耗总价</t>
+    <t>天然气消耗成本</t>
+  </si>
+  <si>
+    <t>药剂消耗成本</t>
+  </si>
+  <si>
+    <t>用电消耗成本</t>
   </si>
   <si>
     <t>当天消耗总价</t>
@@ -2390,6 +2391,15 @@
     <t>826</t>
   </si>
   <si>
+    <t>天然气消耗总价</t>
+  </si>
+  <si>
+    <t>破乳剂消耗总价</t>
+  </si>
+  <si>
+    <t>用电消耗总价</t>
+  </si>
+  <si>
     <t>area</t>
   </si>
   <si>
@@ -2454,6 +2464,12 @@
   </si>
   <si>
     <t>avg_efficiency</t>
+  </si>
+  <si>
+    <t>站点名称</t>
+  </si>
+  <si>
+    <t>王岗</t>
   </si>
 </sst>
 </file>
@@ -2466,20 +2482,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3025,10 +3034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3037,31 +3046,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3073,97 +3085,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3171,20 +3180,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3202,28 +3211,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3232,7 +3241,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3253,7 +3262,7 @@
     <xf numFmtId="181" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3600,14 +3609,14 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.1851851851852" style="8" customWidth="1"/>
-    <col min="2" max="3" width="16.2685185185185" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" style="8" customWidth="1"/>
+    <col min="2" max="3" width="16.2666666666667" style="8" customWidth="1"/>
     <col min="4" max="5" width="14" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
@@ -3814,12 +3823,12 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2685185185185" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.2666666666667" style="26" customWidth="1"/>
     <col min="2" max="2" width="21.9166666666667" style="27" customWidth="1"/>
-    <col min="3" max="3" width="29.8148148148148" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.2685185185185" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.8166666666667" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.2666666666667" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3989,14 +3998,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="16.2685185185185" style="8" customWidth="1"/>
-    <col min="3" max="4" width="19.6388888888889" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29.8148148148148" style="23" customWidth="1"/>
+    <col min="1" max="2" width="16.2666666666667" style="8" customWidth="1"/>
+    <col min="3" max="4" width="19.6416666666667" style="8" customWidth="1"/>
+    <col min="5" max="5" width="29.8166666666667" style="23" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4199,72 +4208,72 @@
   <dimension ref="A1:BN298"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BB298" sqref="BB3:BB298"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.2685185185185" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.2666666666667" style="8" customWidth="1"/>
     <col min="2" max="2" width="27" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.2685185185185" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.2666666666667" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.9166666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27.5462962962963" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.8148148148148" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.6388888888889" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.2685185185185" style="8" customWidth="1"/>
-    <col min="9" max="9" width="27.5462962962963" style="8" customWidth="1"/>
-    <col min="10" max="10" width="29.8148148148148" style="8" customWidth="1"/>
-    <col min="11" max="12" width="25.2685185185185" style="8" customWidth="1"/>
-    <col min="13" max="13" width="27.5462962962963" style="8" customWidth="1"/>
-    <col min="14" max="14" width="34.2685185185185" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.55" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.8166666666667" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.6416666666667" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.2666666666667" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.55" style="8" customWidth="1"/>
+    <col min="10" max="10" width="29.8166666666667" style="8" customWidth="1"/>
+    <col min="11" max="12" width="25.2666666666667" style="8" customWidth="1"/>
+    <col min="13" max="13" width="27.55" style="8" customWidth="1"/>
+    <col min="14" max="14" width="34.2666666666667" style="8" customWidth="1"/>
     <col min="15" max="15" width="21.9166666666667" style="8" customWidth="1"/>
     <col min="16" max="16" width="32" style="8" customWidth="1"/>
     <col min="17" max="17" width="21.9166666666667" style="8" customWidth="1"/>
-    <col min="18" max="18" width="20.8148148148148" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20.8166666666667" style="8" customWidth="1"/>
     <col min="19" max="20" width="23" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.5462962962963" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.55" style="8" customWidth="1"/>
     <col min="22" max="23" width="32" style="8" customWidth="1"/>
-    <col min="24" max="24" width="33.1851851851852" style="8" customWidth="1"/>
-    <col min="25" max="25" width="35.3611111111111" style="8" customWidth="1"/>
-    <col min="26" max="26" width="34.8148148148148" style="8" customWidth="1"/>
-    <col min="27" max="27" width="35.3611111111111" style="8" customWidth="1"/>
-    <col min="28" max="28" width="34.2685185185185" style="8" customWidth="1"/>
-    <col min="29" max="29" width="29.8148148148148" style="8" customWidth="1"/>
+    <col min="24" max="24" width="33.1833333333333" style="8" customWidth="1"/>
+    <col min="25" max="25" width="35.3583333333333" style="8" customWidth="1"/>
+    <col min="26" max="26" width="34.8166666666667" style="8" customWidth="1"/>
+    <col min="27" max="27" width="35.3583333333333" style="8" customWidth="1"/>
+    <col min="28" max="28" width="34.2666666666667" style="8" customWidth="1"/>
+    <col min="29" max="29" width="29.8166666666667" style="8" customWidth="1"/>
     <col min="30" max="30" width="32" style="8" customWidth="1"/>
-    <col min="31" max="31" width="28.6388888888889" style="8" customWidth="1"/>
+    <col min="31" max="31" width="28.6416666666667" style="8" customWidth="1"/>
     <col min="32" max="32" width="30.9166666666667" style="8" customWidth="1"/>
-    <col min="33" max="33" width="29.8148148148148" style="8" customWidth="1"/>
+    <col min="33" max="33" width="29.8166666666667" style="8" customWidth="1"/>
     <col min="34" max="34" width="30.9166666666667" style="8" customWidth="1"/>
-    <col min="35" max="36" width="29.8148148148148" style="8" customWidth="1"/>
+    <col min="35" max="36" width="29.8166666666667" style="8" customWidth="1"/>
     <col min="37" max="38" width="32" style="8" customWidth="1"/>
     <col min="39" max="39" width="30.9166666666667" style="8" customWidth="1"/>
-    <col min="40" max="40" width="33.1851851851852" style="8" customWidth="1"/>
+    <col min="40" max="40" width="33.1833333333333" style="8" customWidth="1"/>
     <col min="41" max="41" width="32" style="8" customWidth="1"/>
-    <col min="42" max="42" width="16.2685185185185" style="8" customWidth="1"/>
-    <col min="43" max="43" width="25.2685185185185" style="8" customWidth="1"/>
+    <col min="42" max="42" width="16.2666666666667" style="8" customWidth="1"/>
+    <col min="43" max="43" width="25.2666666666667" style="8" customWidth="1"/>
     <col min="44" max="44" width="23" style="8" customWidth="1"/>
     <col min="45" max="45" width="32" style="8" customWidth="1"/>
     <col min="46" max="46" width="39.9166666666667" style="8" customWidth="1"/>
-    <col min="47" max="48" width="34.2685185185185" style="8" customWidth="1"/>
-    <col min="49" max="49" width="8.5462962962963" style="8" customWidth="1"/>
-    <col min="50" max="50" width="15.1851851851852" style="8" customWidth="1"/>
-    <col min="51" max="51" width="35.3611111111111" style="8" customWidth="1"/>
-    <col min="52" max="52" width="37.6388888888889" style="8" customWidth="1"/>
-    <col min="53" max="53" width="37.1851851851852" style="8" customWidth="1"/>
-    <col min="54" max="54" width="37.7314814814815" style="8" customWidth="1"/>
-    <col min="55" max="55" width="36.5462962962963" style="8" customWidth="1"/>
-    <col min="56" max="57" width="33.1851851851852" style="8" customWidth="1"/>
+    <col min="47" max="48" width="34.2666666666667" style="8" customWidth="1"/>
+    <col min="49" max="49" width="8.55" style="8" customWidth="1"/>
+    <col min="50" max="50" width="15.1833333333333" style="8" customWidth="1"/>
+    <col min="51" max="51" width="35.3583333333333" style="8" customWidth="1"/>
+    <col min="52" max="52" width="37.6416666666667" style="8" customWidth="1"/>
+    <col min="53" max="53" width="37.1833333333333" style="8" customWidth="1"/>
+    <col min="54" max="54" width="37.7333333333333" style="8" customWidth="1"/>
+    <col min="55" max="55" width="36.55" style="8" customWidth="1"/>
+    <col min="56" max="57" width="33.1833333333333" style="8" customWidth="1"/>
     <col min="58" max="59" width="32" style="8" customWidth="1"/>
-    <col min="60" max="60" width="17.3611111111111" style="8" customWidth="1"/>
+    <col min="60" max="60" width="17.3583333333333" style="8" customWidth="1"/>
     <col min="61" max="61" width="23" style="8" customWidth="1"/>
-    <col min="62" max="62" width="20.8148148148148" style="8" customWidth="1"/>
+    <col min="62" max="62" width="20.8166666666667" style="8" customWidth="1"/>
     <col min="63" max="63" width="21.9166666666667" style="8" customWidth="1"/>
-    <col min="64" max="65" width="18.5462962962963" style="8" customWidth="1"/>
-    <col min="66" max="66" width="20.8148148148148" style="8" customWidth="1"/>
+    <col min="64" max="65" width="18.55" style="8" customWidth="1"/>
+    <col min="66" max="66" width="20.8166666666667" style="8" customWidth="1"/>
     <col min="67" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.6" spans="1:66">
+    <row r="1" s="7" customFormat="1" ht="15" spans="1:66">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -60818,13 +60827,13 @@
   <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.1851851851852" style="8" customWidth="1"/>
-    <col min="2" max="3" width="16.2685185185185" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" style="8" customWidth="1"/>
+    <col min="2" max="3" width="16.2666666666667" style="8" customWidth="1"/>
     <col min="4" max="5" width="14" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
@@ -60834,13 +60843,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>753</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>754</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -65907,31 +65916,31 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -65948,7 +65957,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -65965,7 +65974,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -65982,7 +65991,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -66009,38 +66018,38 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -66170,31 +66179,31 @@
   <sheetPr/>
   <dimension ref="A1:D297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.1296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.9259259259259" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.925" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.462962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4666666666667" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -70635,6 +70644,33 @@
       <c r="D297" s="1">
         <f t="shared" si="4"/>
         <v>85.9591480373532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
